--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H2">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I2">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J2">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.0021229868675</v>
+        <v>25.081504</v>
       </c>
       <c r="N2">
-        <v>25.0021229868675</v>
+        <v>50.163008</v>
       </c>
       <c r="O2">
-        <v>0.6798889288077312</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P2">
-        <v>0.6798889288077312</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q2">
-        <v>54.46145197598275</v>
+        <v>60.53652994312001</v>
       </c>
       <c r="R2">
-        <v>54.46145197598275</v>
+        <v>242.14611977248</v>
       </c>
       <c r="S2">
-        <v>0.07017639640156369</v>
+        <v>0.06749384370028151</v>
       </c>
       <c r="T2">
-        <v>0.07017639640156369</v>
+        <v>0.04063547942895059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H3">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I3">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J3">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.231704726118</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N3">
-        <v>11.231704726118</v>
+        <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.3054265311364204</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P3">
-        <v>0.3054265311364204</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q3">
-        <v>24.46572028588092</v>
+        <v>0.7579509116758334</v>
       </c>
       <c r="R3">
-        <v>24.46572028588092</v>
+        <v>4.547705470055</v>
       </c>
       <c r="S3">
-        <v>0.03152534540924303</v>
+        <v>0.000845060336514194</v>
       </c>
       <c r="T3">
-        <v>0.03152534540924303</v>
+        <v>0.0007631680914440504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H4">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I4">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J4">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.540006846597337</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N4">
-        <v>0.540006846597337</v>
+        <v>34.198366</v>
       </c>
       <c r="O4">
-        <v>0.01468454005584842</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P4">
-        <v>0.01468454005584842</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q4">
-        <v>1.176282388423986</v>
+        <v>27.51363989661834</v>
       </c>
       <c r="R4">
-        <v>1.176282388423986</v>
+        <v>165.08183937971</v>
       </c>
       <c r="S4">
-        <v>0.001515700668550349</v>
+        <v>0.03067571452399108</v>
       </c>
       <c r="T4">
-        <v>0.001515700668550349</v>
+        <v>0.02770302367227904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H5">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I5">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J5">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.0021229868675</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N5">
-        <v>25.0021229868675</v>
+        <v>1.190673</v>
       </c>
       <c r="O5">
-        <v>0.6798889288077312</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P5">
-        <v>0.6798889288077312</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q5">
-        <v>430.8077786761141</v>
+        <v>1.43689971137625</v>
       </c>
       <c r="R5">
-        <v>430.8077786761141</v>
+        <v>5.747598845504999</v>
       </c>
       <c r="S5">
-        <v>0.5551180945852217</v>
+        <v>0.00160203904359454</v>
       </c>
       <c r="T5">
-        <v>0.5551180945852217</v>
+        <v>0.0009645268520999951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H6">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I6">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J6">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.231704726118</v>
+        <v>25.081504</v>
       </c>
       <c r="N6">
-        <v>11.231704726118</v>
+        <v>50.163008</v>
       </c>
       <c r="O6">
-        <v>0.3054265311364204</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P6">
-        <v>0.3054265311364204</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q6">
-        <v>193.5317959337479</v>
+        <v>495.7870008626454</v>
       </c>
       <c r="R6">
-        <v>193.5317959337479</v>
+        <v>2974.722005175872</v>
       </c>
       <c r="S6">
-        <v>0.2493757242047557</v>
+        <v>0.5527665754263761</v>
       </c>
       <c r="T6">
-        <v>0.2493757242047557</v>
+        <v>0.4991996359956073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H7">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I7">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J7">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.540006846597337</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N7">
-        <v>0.540006846597337</v>
+        <v>0.942103</v>
       </c>
       <c r="O7">
-        <v>0.01468454005584842</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P7">
-        <v>0.01468454005584842</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q7">
-        <v>9.304775845422681</v>
+        <v>6.207528076914111</v>
       </c>
       <c r="R7">
-        <v>9.304775845422681</v>
+        <v>55.867752692227</v>
       </c>
       <c r="S7">
-        <v>0.01198968471211594</v>
+        <v>0.006920943935537986</v>
       </c>
       <c r="T7">
-        <v>0.01198968471211594</v>
+        <v>0.009375384240721164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H8">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J8">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.0021229868675</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N8">
-        <v>25.0021229868675</v>
+        <v>34.198366</v>
       </c>
       <c r="O8">
-        <v>0.6798889288077312</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P8">
-        <v>0.6798889288077312</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q8">
-        <v>27.03117082855224</v>
+        <v>225.3334477542105</v>
       </c>
       <c r="R8">
-        <v>27.03117082855224</v>
+        <v>2028.001029787894</v>
       </c>
       <c r="S8">
-        <v>0.0348310610613065</v>
+        <v>0.2512304639439726</v>
       </c>
       <c r="T8">
-        <v>0.0348310610613065</v>
+        <v>0.3403267176251583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H9">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J9">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.231704726118</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N9">
-        <v>11.231704726118</v>
+        <v>1.190673</v>
       </c>
       <c r="O9">
-        <v>0.3054265311364204</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P9">
-        <v>0.3054265311364204</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q9">
-        <v>12.14321397055058</v>
+        <v>11.7680382260595</v>
       </c>
       <c r="R9">
-        <v>12.14321397055058</v>
+        <v>70.60822935635699</v>
       </c>
       <c r="S9">
-        <v>0.01564715897699836</v>
+        <v>0.01312050977211433</v>
       </c>
       <c r="T9">
-        <v>0.01564715897699836</v>
+        <v>0.01184904079495787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.08115502202555</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H10">
-        <v>1.08115502202555</v>
+        <v>3.454783</v>
       </c>
       <c r="I10">
-        <v>0.05123051661156925</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J10">
-        <v>0.05123051661156925</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.540006846597337</v>
+        <v>25.081504</v>
       </c>
       <c r="N10">
-        <v>0.540006846597337</v>
+        <v>50.163008</v>
       </c>
       <c r="O10">
-        <v>0.01468454005584842</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P10">
-        <v>0.01468454005584842</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q10">
-        <v>0.5838311141268916</v>
+        <v>28.88371787787734</v>
       </c>
       <c r="R10">
-        <v>0.5838311141268916</v>
+        <v>173.302307267264</v>
       </c>
       <c r="S10">
-        <v>0.0007522965732643964</v>
+        <v>0.03220325218119044</v>
       </c>
       <c r="T10">
-        <v>0.0007522965732643964</v>
+        <v>0.02908253226839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H11">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I11">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J11">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>25.0021229868675</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N11">
-        <v>25.0021229868675</v>
+        <v>0.942103</v>
       </c>
       <c r="O11">
-        <v>0.6798889288077312</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P11">
-        <v>0.6798889288077312</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q11">
-        <v>15.33766692891021</v>
+        <v>0.3616401587387778</v>
       </c>
       <c r="R11">
-        <v>15.33766692891021</v>
+        <v>3.254761428649</v>
       </c>
       <c r="S11">
-        <v>0.01976337675963944</v>
+        <v>0.0004032025683103115</v>
       </c>
       <c r="T11">
-        <v>0.01976337675963944</v>
+        <v>0.0005461941376730642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H12">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I12">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J12">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.231704726118</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N12">
-        <v>11.231704726118</v>
+        <v>34.198366</v>
       </c>
       <c r="O12">
-        <v>0.3054265311364204</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P12">
-        <v>0.3054265311364204</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q12">
-        <v>6.890140738190488</v>
+        <v>13.12754816495311</v>
       </c>
       <c r="R12">
-        <v>6.890140738190488</v>
+        <v>118.147933484578</v>
       </c>
       <c r="S12">
-        <v>0.008878302545423333</v>
+        <v>0.01463626482796046</v>
       </c>
       <c r="T12">
-        <v>0.008878302545423333</v>
+        <v>0.01982686290904268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H13">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I13">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J13">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.540006846597337</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N13">
-        <v>0.540006846597337</v>
+        <v>1.190673</v>
       </c>
       <c r="O13">
-        <v>0.01468454005584842</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P13">
-        <v>0.01468454005584842</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q13">
-        <v>0.3312696748508703</v>
+        <v>0.6855861398265</v>
       </c>
       <c r="R13">
-        <v>0.3312696748508703</v>
+        <v>4.113516838959</v>
       </c>
       <c r="S13">
-        <v>0.0004268581019177333</v>
+        <v>0.0007643788603014907</v>
       </c>
       <c r="T13">
-        <v>0.0004268581019177333</v>
+        <v>0.0006903052134274069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.655778</v>
+      </c>
+      <c r="H14">
+        <v>1.311556</v>
+      </c>
+      <c r="I14">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J14">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>25.081504</v>
+      </c>
+      <c r="N14">
+        <v>50.163008</v>
+      </c>
+      <c r="O14">
+        <v>0.670801886161467</v>
+      </c>
+      <c r="P14">
+        <v>0.5799583902495139</v>
+      </c>
+      <c r="Q14">
+        <v>16.447898530112</v>
+      </c>
+      <c r="R14">
+        <v>65.79159412044801</v>
+      </c>
+      <c r="S14">
+        <v>0.01833821485361891</v>
+      </c>
+      <c r="T14">
+        <v>0.01104074255656593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.655778</v>
+      </c>
+      <c r="H15">
+        <v>1.311556</v>
+      </c>
+      <c r="I15">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J15">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3140343333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.942103</v>
+      </c>
+      <c r="O15">
+        <v>0.008398811455623189</v>
+      </c>
+      <c r="P15">
+        <v>0.01089210079525609</v>
+      </c>
+      <c r="Q15">
+        <v>0.2059368070446667</v>
+      </c>
+      <c r="R15">
+        <v>1.235620842268</v>
+      </c>
+      <c r="S15">
+        <v>0.0002296046152606975</v>
+      </c>
+      <c r="T15">
+        <v>0.0002073543254178145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.655778</v>
+      </c>
+      <c r="H16">
+        <v>1.311556</v>
+      </c>
+      <c r="I16">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J16">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.39945533333333</v>
+      </c>
+      <c r="N16">
+        <v>34.198366</v>
+      </c>
+      <c r="O16">
+        <v>0.3048770974345635</v>
+      </c>
+      <c r="P16">
+        <v>0.3953835721837834</v>
+      </c>
+      <c r="Q16">
+        <v>7.475512019582666</v>
+      </c>
+      <c r="R16">
+        <v>44.853072117496</v>
+      </c>
+      <c r="S16">
+        <v>0.008334654138639319</v>
+      </c>
+      <c r="T16">
+        <v>0.007526967977303462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.655778</v>
+      </c>
+      <c r="H17">
+        <v>1.311556</v>
+      </c>
+      <c r="I17">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J17">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5953364999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.190673</v>
+      </c>
+      <c r="O17">
+        <v>0.01592220494834624</v>
+      </c>
+      <c r="P17">
+        <v>0.01376593677144639</v>
+      </c>
+      <c r="Q17">
+        <v>0.390408579297</v>
+      </c>
+      <c r="R17">
+        <v>1.561634317188</v>
+      </c>
+      <c r="S17">
+        <v>0.0004352772723358812</v>
+      </c>
+      <c r="T17">
+        <v>0.0002620639109611215</v>
       </c>
     </row>
   </sheetData>
